--- a/csec/database/POA data.xlsx
+++ b/csec/database/POA data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -19,6 +19,66 @@
     <t>id</t>
   </si>
   <si>
+    <t>CSEC POA January 2023 P2.pdf</t>
+  </si>
+  <si>
+    <t>1MRmcri_e9J8FBd5aTqVMjmkHF8d2WZXW</t>
+  </si>
+  <si>
+    <t>CSEC POA June 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>1wyWVLGiFCqPBqK9ojRCmiuoK5WI3hbJT</t>
+  </si>
+  <si>
+    <t>CSEC POA January 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1myv3XxjiTbTir8aVW8BYQw_3uwQRQ-A7</t>
+  </si>
+  <si>
+    <t>CSEC POA January 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>1jnQUSA2XO6kKzgmKzHZzD-OMbkuAIAqI</t>
+  </si>
+  <si>
+    <t>CSEC POA January 2020 P2.pdf</t>
+  </si>
+  <si>
+    <t>14wl21AfhPBefaSxXNgxK3T7Ve0ZhPxUN</t>
+  </si>
+  <si>
+    <t>CSEC POA January 2016 P2.pdf</t>
+  </si>
+  <si>
+    <t>1Xh0b--B-_VJRc6y3TsChl9qqecnAjkqO</t>
+  </si>
+  <si>
+    <t>CSEC POA January 2024 P2.pdf</t>
+  </si>
+  <si>
+    <t>15E-ZY8t0HAFlrLFejz0Kdufg-nr5ZT7i</t>
+  </si>
+  <si>
+    <t>CSEC POA June 2023 P2.pdf</t>
+  </si>
+  <si>
+    <t>1uDq52-v2Y6RNz0gCgFM7yM1i-e5Kp4_m</t>
+  </si>
+  <si>
+    <t>CSEC POA June 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1rVO7awlqtchtfrVq4stI_oALQV8GGi1d</t>
+  </si>
+  <si>
+    <t>CSEC POA June 2019 P2.pdf</t>
+  </si>
+  <si>
+    <t>1DVZjgaAxVP2GBcM5--hHUZTinxudhUGk</t>
+  </si>
+  <si>
     <t>CSEC POA January 2018 P2.pdf</t>
   </si>
   <si>
@@ -59,12 +119,6 @@
   </si>
   <si>
     <t>1_cfBduKjNaFn2aiZAkC1Qbz60YOyOH0D</t>
-  </si>
-  <si>
-    <t>CSEC POA January 2016 P02.pdf</t>
-  </si>
-  <si>
-    <t>1Xh0b--B-_VJRc6y3TsChl9qqecnAjkqO</t>
   </si>
   <si>
     <t>CSEC POA January 2008 P2.pdf</t>
@@ -925,6 +979,78 @@
         <v>93</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
